--- a/static/files/订单分配到人列表模板.xlsx
+++ b/static/files/订单分配到人列表模板.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="17400" windowHeight="11640"/>
+    <workbookView xWindow="15600" yWindow="1080" windowWidth="17400" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -11157,8 +11162,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11217,8 +11222,8 @@
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -11509,14 +11514,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O296"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="12.5" bestFit="1" customWidth="1"/>
@@ -11571,7 +11576,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>7969771</v>
+        <v>7326555</v>
       </c>
       <c r="B2" s="3">
         <v>42123</v>
@@ -12995,7 +13000,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1">
-        <v>7973159</v>
+        <v>7331054</v>
       </c>
       <c r="B36" s="3">
         <v>42123</v>
@@ -15048,7 +15053,7 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="1">
-        <v>7964646</v>
+        <v>7331067</v>
       </c>
       <c r="B85" s="3">
         <v>42123</v>
@@ -23933,34 +23938,49 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>